--- a/02.정적페이지크롤링/result.xlsx
+++ b/02.정적페이지크롤링/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>카테고리</t>
+          <t>제목</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>상품명</t>
+          <t>링크</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>상세페이지링크</t>
+          <t>내용</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>기격</t>
+          <t>언론사</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
         </is>
       </c>
     </row>
@@ -461,22 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>“서학개미 어쩌나”…월가 전설, 엔비디아 팔고 ‘이 주식’ 샀다</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>에이서 스위프트 GO 16 OLED, 스틸 그레이, 코어i7, 512GB, 16GB, WIN11 Home, SFG16-71-77FT</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300563&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>#product1_detail.html</t>
+          <t>‘억만장자 큰손’ 드러켄 밀러 엔비디아 일부 고점 매도 후 아르헨티나 대형주 5종목 매수 아르헨 ETF는 올해 26% 상승 월가 억만장..</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-05-08 23:48:01</t>
         </is>
       </c>
     </row>
@@ -486,22 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>뉴욕증시, 기술주 부진·Fed 매파 발언에 하락…테슬라 2.6% ↓</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>삼성전자 노트북 플러스2 15.6, 퓨어 화이트, NT550XDA-K24AT, 펜티엄, 256GB, 8GB, WIN11 Pro</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415770&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>#product2_detail.html</t>
+          <t>미국 뉴욕증시의 3대 지수는 8일(현지시간) 장 초반 하락세를 보이고 있다. 기술주 부진과 전날 미 연방준비제도(Fed) 당국자의 매파..</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-08 22:55:22</t>
         </is>
       </c>
     </row>
@@ -511,22 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>일본은행 총재 "물가전망 오르면 금리 빨리 조정하는 게 적절"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>레노버 아이디어패드 슬림 1 15AMN7 15.6, 256GB, Free DOS, 82VG002EKR, 라이젠3, Cloud Grey (82VG), 8GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415759&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>#product3_detail.html</t>
+          <t>우에다 가즈오 일본은행(BOJ) 총재가 8일 물가가 오르거나 오를 위험성이 커질 것으로 전망되면 "금리를 좀 더 빠르게 조정하는 게 적..</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>529000</t>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-08 21:10:48</t>
         </is>
       </c>
     </row>
@@ -536,22 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>“4개월만에 180도 달라졌네”…희비 엇갈리는 중국·일본 펀드, 무슨 일</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>레노버 V15 G4 AMN 15.6, Arctic Grey, 라이젠3, 256GB, 8GB, WIN11 Home, 82YU0009KR</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300534&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>#product4_detail.html</t>
+          <t>최근 한달 中펀드 6% 오르자 투자자들 차익실현 이어져 올해 “팔자” 이어졌던 日펀드 주춤한 틈타 저가매수 열풍 최근 일본 증시 하락으..</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>624000</t>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:45:01</t>
         </is>
       </c>
     </row>
@@ -561,22 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>빚내서 설비투자 ‘SK온’…사모 신종자본증권 조달 앞둬[마켓인]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LG 울트라PC 엣지 16, 차콜 그레이, 라이젠5, 256GB, 16GB, WIN11 Home, 16U70R-GA56K</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005734067&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>#product5_detail.html</t>
+          <t>이 기사는 2024년05월08일 18시25분에 마켓인 프리미엄 콘텐츠로 선공개 되었습니다. 이차전지 업체 SK온이 사모시장 신종자본증권..</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1135000</t>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:26:01</t>
         </is>
       </c>
     </row>
@@ -586,22 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>수원 북부순환도로 관련 대출 1100억, 2040년 6월 만기</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>베이직스 베이직북 14 3세대, BB1422SS, 256GB, White, WIN11 Pro, 셀러론, 8GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005734066&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>#product6_detail.html</t>
+          <t>‘수원 북부순환도로 민간투자사업’ 관련 대출 1100억원이 오는 2040년 6월 만기를 맞는다. 당초에는 신용협동조합중앙회, 농협생명보..</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>398000</t>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:16:01</t>
         </is>
       </c>
     </row>
@@ -611,22 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>올해도 '헉소리' 나는 카네이션값…소비자도 꽃집도 울상</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>레노버 아이디어패드 슬림 5i 14IRL 14, Cloud Grey, 코어i5, 512GB, 16GB, Free DOS, 82XD002XKR</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001816570&amp;office_id=057&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>#product7_detail.html</t>
+          <t>오늘(8일) 어버이날을 맞아 가슴에 카네이션 꽃 한송이를 단 부모들이 많습니다. 그런데 알고 보면, 이 꽃 값도 예년보다 참 많이 올랐..</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>899000</t>
+          <t>MBN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:14:01</t>
         </is>
       </c>
     </row>
@@ -636,22 +676,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>일 정부 압박에 라인야후 "네이버 지분 매각 요청"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>레노버 아이디어패드 슬림 5 16IRL 16, Cloud Grey, 512GB, 16GB, Free DOS, 82XF001RKR</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001816567&amp;office_id=057&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>#product8_detail.html</t>
+          <t>일본 국민 메신저 '라인'은 우리나라 네이버와 일본 소프트뱅크가 공동 경영하고 있죠. 일본 라인야후 사장이 오늘(8일) 네이버에 지분 ..</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>929000</t>
+          <t>MBN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:10:01</t>
         </is>
       </c>
     </row>
@@ -661,22 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>병원비·약값 줄줄이 인상…소화제·감기약은 물가의 최대 4배</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>에이서 스위프트 GO 16 OLED, 스틸 그레이, 코어i5, 512GB, 16GB, Free DOS, SFG16-71-51BY</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001816566&amp;office_id=057&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>#product9_detail.html</t>
+          <t>또 가격 인상 소식이 있습니다. 먹거리만큼이나 자주 인상된 게 약값인데, 소화제나 감기약 같은 일부 상비약의 상승 폭은 전체 소비자물가..</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1008000</t>
+          <t>MBN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:08:01</t>
         </is>
       </c>
     </row>
@@ -686,22 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>"임대업자도 못 갚아"…자영업자 대출 연체 1조 돌파</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시북 2 15.6, 500GB, 실버, NT550XED-K78AS, 코어i7, 16GB, WIN11 Home</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001816565&amp;office_id=057&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>#product10_detail.html</t>
+          <t>고금리에 빚을 갚지 못하는 자영업자들이 많다는 건 어제오늘 일이 아니지만, 최근에는 상황이 너무 안 좋습니다. 연체 금액이 지난해보다 ..</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>MBN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:06:57</t>
         </is>
       </c>
     </row>
@@ -711,22 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>쿠팡, 알리·테무 공세에 영업이익 반토막…"투자 더 늘린다"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>한성컴퓨터 데스크탑 화이트 TFG MX4A500 (라이젠5-5600G WIN미포함 RAM 16GB NVMe 500GB), 기본형</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001816560&amp;office_id=057&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>#product11_detail.html</t>
+          <t>국내 유통업계 1위 쿠팡이 7분기 만에 적자로 돌아섰습니다. 알리익스프레스와 테무 등 중국발 이커머스 공세에 영업이익이 61%나 줄었는..</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>MBN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-08 20:00:01</t>
         </is>
       </c>
     </row>
@@ -736,22 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>한화오션의 고발에 맞고소한 HD현대중공업…이지스함 수주 신경전</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>컴집 게이밍 조립식 컴퓨터 본체 배틀그라운드 디아블로4 롤 오버워치2 전문가용 건축설계 오토캐드 조립 PC, 게임용1번</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001816559&amp;office_id=057&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>#product12_detail.html</t>
+          <t>우리 해군력을 크게 신장시킬 한국형 차세대 이지스함을 누가 만드느냐가 올해 하반기 결정되는데요. 국내 대형 조선사인 HD현대중공업과 한..</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>MBN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-08 19:56:01</t>
         </is>
       </c>
     </row>
@@ -761,22 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>“‘나를 따르라’ 한마디에 우르르 몰려간 개미”…시세조종 놀이터 된 ‘해외주식 종토방’</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HP VICTUS 게이밍 데스크탑 TG02-1000KL (i5-13400F FreeDos RAM 16GB NVMe 512GB RTX3060 Ti), 기본형</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300520&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>#product13_detail.html</t>
+          <t>증권사가 개설한 종토방서 검증 안된 종목 추천 속출 나스닥 전체 3411개 종목중 1달러 미만 동전주가 464개 시세조종 펌프질행위 빈..</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-08 19:43:01</t>
         </is>
       </c>
     </row>
@@ -786,22 +856,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>부양책 훈풍 탄 중국 증시, 경기 회복·美 금리 등 변수</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>델 인스피론 3020 S 슬림 데스크탑 포그 블루 DN3020S-WH02KR (i5-13400 WIN11 Home NVMe 512GB DDR4 8GB), 기본형</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005734043&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>#product14_detail.html</t>
+          <t>올해 2월초 중국 본토와 홍콩 증시가 곤두박질치자 중국 정부는 긴급 대응에 나섰다. 국부펀드를 통해 대규모 주식을 매입하고 지난달에는 ..</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>719000</t>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-08 19:00:03</t>
         </is>
       </c>
     </row>
@@ -811,22 +886,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>中 상장사 1분기 실적 부진했는데…알리바바·텐센트 발표 주목</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>삼성전자 컴퓨터 i7-8700 T8A 정품 윈도우11 Pro 탑재 사무용 데스크탑 PC 본체, 기본스펙, 삼성 T8A i7-8700+8GB+500GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005734042&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>#product15_detail.html</t>
+          <t>중국 증시가 정부 주도 부양책에 힘입어 큰 폭으로 올랐지만 랠리를 이어가기 위해선 기초체력인 실적 개선이 관건이다. 중국 상장사 이익은..</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>416000</t>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-08 19:00:01</t>
         </is>
       </c>
     </row>
@@ -836,22 +916,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>증시 맴도는 CMA 잔액, 83조원 넘어서며 올들어 최고</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>삼성전자 사무용 게임용 리퍼 중고컴퓨터 i3 i5 i7 GTX1060 무상A/S 1년 새상품SSD, 7번) i5-7세대-미들[게임용 조립]</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982184&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>#product16_detail.html</t>
+          <t>매일 이자를 지급하고 입출금이 자유로운 종합자산관리계좌(CMA)와 머니마켓펀드(MMF)에 돈이 몰리고 있다. 미국 기준금리 인하 시기가..</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>436000</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:41:03</t>
         </is>
       </c>
     </row>
@@ -861,22 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>HD현대마린, 개인?외인 매도에도 ‘따블’ 근접 …장중 주가는 롤러코스터</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 DM500SFZ-AD5A 최신 13세대 CPU-i5 데스크탑 슬림형 PC본체 사무용 컴퓨터 인터넷강의 재택근무 업무용, 블랙</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001694599&amp;office_id=005&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>#product17_detail.html</t>
+          <t>올해 상반기 공모주 ‘최대어’ HD현대마린솔루션(HD현대마린)이 공모가 ‘따블(공모가 대비 배 상승)’에 근접하며 무난한 출발을 했다...</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>889000</t>
+          <t>국민일보</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:39:01</t>
         </is>
       </c>
     </row>
@@ -886,23 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>"中·日·유럽 투자 매력 떨어져…젊은 '미·인'에 적극 대시하라"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HP S01-PF3000KL-WIN11 13세대
-i5-13400_(NVMe512GB_16GB)HP컴퓨터/슬림PC/사무용PC/HH</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982166&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>#product18_detail.html</t>
+          <t>일본과 중국, 유럽은 해외 증시에 투자하는 이른바 ‘서학개미’들이 미국에 이어 가장 많이 투자하는 시장으로 꼽힌다. 그런데 최근 이 시..</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:36:01</t>
         </is>
       </c>
     </row>
@@ -912,22 +1006,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>HD현대마린, 첫날 '따블'…시총 7조원 안착</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>삼성 컴퓨터 본체 조립PC 모니터포함 풀세트 사무용 게이밍 데스크탑 윈도우10, 본체만, 10. 라이젠5600/32G/500/4060</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982164&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>#product19_detail.html</t>
+          <t>올해 상반기 기업공개(IPO) 최대어인 HD현대마린솔루션이 유가증권시장 상장 첫날 ‘따블’(공모가 대비 2배 상승)에 가까운 상승률을 ..</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1099000</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:34:01</t>
         </is>
       </c>
     </row>
@@ -937,22 +1036,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>데스크탑</t>
+          <t>횡보장에만 유리?…편견 깬 커버드콜</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>컴집 게이밍 조립식 컴퓨터 본체 배틀그라운드 디아블로4 롤 오버워치2 전문가용 건축설계 오토캐드 조립 PC, 게임용11번</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982162&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>#product20_detail.html</t>
+          <t>“지속적인 배당수익을 원한다면 커버드콜 상장지수펀드(ETF)가 좋은 대안이 될 수 있습니다.” 남용수 한국투자신탁운용 ETF운용본부장(..</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>899000</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:32:06</t>
         </is>
       </c>
     </row>
@@ -962,22 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>밸류업·호실적 타고 `훨훨`… 금융株 비행, 계속 될까</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 A34 자급제, 어썸 그라파이트, 128GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002872574&amp;office_id=029&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>#product21_detail.html</t>
+          <t>KRX은행 지수, 올해 21.07%↑ PF發 충당금 적립 불확실성 잔존 이달 방안 발표… 변동성 주의 주가순자산비율(PBR)이 낮아 정..</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>408400</t>
+          <t>디지털타임스</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:30:00</t>
         </is>
       </c>
     </row>
@@ -987,22 +1096,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>하이닉스, 中에 현지 파운드리 지분 절반 매각</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 A34 자급제, 어썸 바이올렛, 128GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982159&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>#product22_detail.html</t>
+          <t>▶마켓인사이트 5월 8일 오후 5시 47분 SK하이닉스가 중국 파운드리(반도체 수탁생산) 사업을 위해 세운 현지법인의 지분 49.9%를..</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>408400</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:29:07</t>
         </is>
       </c>
     </row>
@@ -1012,22 +1126,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>'AI 아이폰 수혜' LG이노텍·LG디스플레이·비에이치 고공행진</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 A34 자급제, 어썸 실버, 128GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182565&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>#product23_detail.html</t>
+          <t>오는 6월 애플의 연례개발자컨퍼런스(WWDC)를 앞두고 이른바 '아이폰 수혜주'들의 매수세가 이어지고 있다. 8일 한국거래소에 따르면 ..</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>409510</t>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:23:15</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1156,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>"아우가 실적·성장 낫더라"… 기관, 1등주 팔고 2등주 산다</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 A24 자급제, 블랙, 128GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182563&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>#product24_detail.html</t>
+          <t>기관 투자자들이 '1등주'를 털고 '2등주'를 매집하고 있다. 삼성전자와 삼성바이오로직스, 현대차 등 국내 증시를 대표하는 1등 종목은..</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:23:12</t>
         </is>
       </c>
     </row>
@@ -1062,22 +1186,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>벼랑끝 고팍스… 원화마켓 노리는 `2부리거`</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 S23 자급제, 라벤더, 256GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002872568&amp;office_id=029&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>#product25_detail.html</t>
+          <t>전북은행과 8월 계약만료 도래 중국계 자본·자본잠식 등 부담 외국계 거래소에 보수적 기조도 국내 원화마켓 가상자산거래소(이하 원화마켓)..</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>952450</t>
+          <t>디지털타임스</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:20:12</t>
         </is>
       </c>
     </row>
@@ -1087,22 +1216,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>삼성發 ETF 보수 인하 도미노…한화·마이다스도 참전</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 S23 자급제, 크림, 256GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004338236&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>#product26_detail.html</t>
+          <t>삼성자산운용이 불을 지핀 상장지수펀드(ETF) 수수료 인하 경쟁에 한화·마이다스에셋자산운용 등 중소형사가 대거 참전했다. 점유율 경쟁이..</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1004850</t>
+          <t>서울경제</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-05-08 18:04:01</t>
         </is>
       </c>
     </row>
@@ -1112,22 +1246,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>고환율·고유가·고금리 ‘3高’ 덮친 상장사…10곳 중 7곳 2분기 실적 전망 낮췄다</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 A23 공기계 128GB, 블루, A급</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004338230&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>#product27_detail.html</t>
+          <t>원·달러 환율이 달러당 1350원을 넘는 고환율과 유가 상승으로 증권사들이 70%가 넘는 상장사의 2분기 실적 전망을 하향 조정했다. ..</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>서울경제</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:57:03</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1276,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>피벗 전 찜해야 쏠쏠…숨은 '찐' 배당귀족株</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 Z 플립5 5G 자급제, 크림, 512GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982107&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>#product28_detail.html</t>
+          <t>이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다. 미국 중앙은행(Fed)의 피벗(기준금리 인하로 통화정책..</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1216050</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:56:03</t>
         </is>
       </c>
     </row>
@@ -1162,22 +1306,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>월가의 전설 "AI株 거품 껴있다"…엔비디아 주가 출렁</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 S23 5G 256GB 제휴카드 새제품 미개봉 미개통, 그린</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982105&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>#product29_detail.html</t>
+          <t>이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다. 미국 월스트리트의 유명 투자자 스탠리 드러켄밀러(71)..</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>147000</t>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:54:06</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1336,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>휴대폰</t>
+          <t>"거품낀 AI株 팔았다" 월가의 전설 아르헨 줍줍</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 S23 FE 자급제 SM-S711N, 크림, 256GB</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300464&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>#product30_detail.html</t>
+          <t>억만장자 큰손 드러켄밀러 엔비디아 일부 고점 매도후 아르헨 대기업 5종목 매수 관련 ETF 올해 26% 상승 월가 억만장자 투자자로 유..</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>719900</t>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:51:09</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1366,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>뒤집힌 펀드 흐름…中 발 빼고, 日 더 담고</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>주연테크 54.6cm FHD LED 모니터 100Hz, V22FX(일반)</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300461&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>#product31_detail.html</t>
+          <t>최근 한달 中펀드 6% 오르자 투자자들 차익실현 이어져 올해 "팔자" 이어졌던 日펀드 주춤한 틈타 저가 매수 열풍 최근 일본 증시 하락..</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:51:01</t>
         </is>
       </c>
     </row>
@@ -1237,22 +1396,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>'좀비 기업' 양산하는 IBK證...밸류업 역주행</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LG전자 60.4cm FHD 모니터, 24MQ400C</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161137&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>#product32_detail.html</t>
+          <t>이른바 'IPO 뻥튀기'로 거래정지까지 당하고 현재는 주주들로부터 집단소송을 당한 '파두 사태' 기억하실겁니다. 중소기업 특화증권사인 ..</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>145000</t>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:50:44</t>
         </is>
       </c>
     </row>
@@ -1262,22 +1426,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>"묻지마 추종매매"… 해외주식 종토방 시끌</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>KOORUI 60.45cm FHD 게이밍 모니터 리얼 165Hz 1ms MPRT+프리싱크/G-sync 지원 24E4 블랙</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300438&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>#product33_detail.html</t>
+          <t>증권사가 개설한 종토방서 검증 안된 종목 추천 속출 나스닥 전체 3411개 종목중 1달러 미만 동전주가 464개 시세조종 펌프질행위 빈..</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>85900</t>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:47:11</t>
         </is>
       </c>
     </row>
@@ -1287,22 +1456,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>`악재 발언`에 비트코인 6.2만달러선 후퇴</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LG전자 68.6cm FHD 모니터, 27MQ400C</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002872560&amp;office_id=029&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>#product34_detail.html</t>
+          <t>현물 ETF 자금도 순유출 금리인하 기대감 후퇴와 가상자산 증권성 여부 등 가상자산에 악재로 여겨지는 발언들이 이어지며 비트코인 가격이..</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>169750</t>
+          <t>디지털타임스</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:44:07</t>
         </is>
       </c>
     </row>
@@ -1312,22 +1486,5697 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>"HBM의 급성장…삼성·SK 하청구조에 지각변동 올것"[시그널]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KOORUI 60.45cm FHD Fast IPS 리얼 165Hz 1ms(gtg) 게이밍 모니터 24E3 블랙 [프리싱크/G-sync 지원]</t>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004338176&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>#product35_detail.html</t>
+          <t>인공지능(AI)용 메모리반도체로 주목 받는 고대역폭메모리(HBM)가 인수합병(M&amp;A) 시장에서도 핵으로 떠오르고 있다는 지적이 나왔다...</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>서울경제</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:33:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>크래프톤, 1Q 사상 최대 분기 매출 ‘배틀그라운드 파워’[컨콜 종합]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300396&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>비수기 2Q 지표도 긍정적…하반기 ‘다크앤다커 모바일’ 출시 크래프톤(대표 김창한)이 ‘펍지: 배틀그라운드(이하 배틀그라운드)’의 지식..</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:33:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>'대출 갈아타기'에... 카뱅은 최대 실적, 5대 은행은 주담대 늘려</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000800216&amp;office_id=469&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>인터넷전문은행 카카오뱅크가 대출 갈아타기(대환 대출) 서비스 활성화 등에 힘입어 분기 최대 실적을 달성했다. 대환 대출은 5대 시중은행..</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>한국일보</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:31:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>이지스자산운용 "美부동산 대출 위험, 금융위기 확대 안 될 것"</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000834914&amp;office_id=031&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>이지스자산운용이 미국 상업용 부동산 대출의 신용 위험이 금융권 전반에 시스템 위기로 전이될 가능성은 작다고 전망했다. 이지스자산운용 투..</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>아이뉴스24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:27:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>시그널 없는 공매도 재개 시점…골든타임 흐른다 [기자수첩]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300377&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>“아직 공매도 재개 시점을 단정하기 어렵습니다.” 이복현 금융감독원장이 지난달 25일 한국거래소 컨퍼런스홀에서 불법 공매도 방지 전산시..</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>코스피, 이틀 연속 상승 마감 '2740선' 안착… HD현대마린 '따블' 실패</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001001343&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>코스피가 외국인과 기관의 순매수에 힘입어 이틀 연속 상승세로 장을 마쳤다. 8일 코스피는 전날 대비 10.69포인트(0.39%) 상승한..</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:17:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>금리인하 지연에 투자자들 '눈치보기'…CMA 잔액 83조 넘겨</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982079&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>증시를 맴도는 단기 자금이 늘어나고 있다. 종합자산관리계좌(CMA) 잔고가 올해 들어 최고치를 기록했고, 법인들의 머니마켓펀드(MMF)..</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:16:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>"횡보장에서만 유리?…커버드콜, 장기 상승분에 15% 분배 가능"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982078&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>데일리 옵션 커버드콜 상장지수펀드(ETF)는 월배당 뿐만 아니라 나스닥100 등 기초지수의 하루 1%까지 상승분도 온전히 가져갈 수 있..</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HD현대마린 '따블 실패' 아쉬운데…'선방' 평가, 왜?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733980&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>올해 상반기 기업공개(IPO) 시장 최대어로 꼽힌 HD현대마린솔루션이 유가증권시장(코스피) 상장 첫날 공모가 대비 90%가 넘는 상승률..</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:14:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>대항해 나선 `IPO 대어`… HD현대마린, 첫날 따블 코앞까지</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002872546&amp;office_id=029&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>공모 청약서 25조원 끌어모아 첫날 종가 기준 시총 56위 안착 올해 상반기 기업공개(IPO) 최대어로 꼽힌 HD현대마린솔루션이 코스피..</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>디지털타임스</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:10:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>애플도 ‘온디바이스 AI’..아이폰 수혜주 매수세</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182456&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>오는 6월 애플의 연례개발자컨퍼런스(WWDC)를 앞두고 이른바 ‘아이폰 수혜주’들의 매수세가 이어지고 있다. 8일 한국거래소에 따르면 ..</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>엔비디아 하락 버텨낸 삼성전자…‘2.9조 순매수’ 外人 부스터로 ‘10만전자’ 바라보나 [투자360]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305993&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>미국 주요 반도체주(株)의 하락세란 악재에도 불구하고 삼성전자 주가가 뒷걸음질을 치지 않은 채 버티기에 성공했다. 전날 급등세로 ‘8만..</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:10:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>버핏도 경고한 AI發 사이버 공격…AI 보안 투자가 뜬다 [투자360]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305988&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>“내가 사기에 투자하는 데 관심이 있었다면 이것(생성형 인공지능)이 역대 최대 성장산업이 됐을 것이다.” ‘투자의 귀재’로 불리는 워런..</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>‘주식 중개 서두를 걸’… 모회사 지원에 의존하는 ‘만년 적자’ 카카오페이證</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991222&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>카카오페이證, 설립 이래 줄곧 영업손실 모회사 증자 받은 데 이어 빌린 돈 만기 연장 “토스증권보다 MTS 출시 1년 늦은 게 패착” ..</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:00:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>강달러 지속…원·달러 환율 1.4원 상승 [한경 외환시장 워치]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982069&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>달러화가 강세를 나타내면서 원·달러 환율이 소폭 상승(원화 가치는 하락)했다. 미국의 기준금리 인상 가능성이 언급된 것이 영향을 준 것..</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:56:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>외국인·기관 동반 ‘사자’에 이틀째 오른 코스피… HD현대마린은 ‘따블’ 실패[마켓뷰]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991219&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>상장 첫날 HD현대마린솔루션 96% 올라 코스피 지수와 코스닥 지수가 이틀 연속 상승 마감했다. 8일 오전 하락 출발한 코스피 지수는 ..</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:53:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>금리 인상 불안에 코스피 주춤…"상승 여력 여전하다"</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035520&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>미국의 금리 인상 우려가 재발하면서 국내 증시가 제한적인 상승세를 나타냈다. 실적에 따른 종목 차별화가 나타나는 가운데 증시 전반의 상..</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:52:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>삼성전자 '올랐다' 하면 파는 개미들…이틀간 9000억 팔았다[핫종목]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007528207&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>최근 삼성전자(005930) 주가가 급등하자 개인 투자자들이 이틀간 삼성전자 주식을 9000억 원가량 팔고 떠난 것으로 나타났다. 외국..</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:47:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>외국인 매수세에 코스피, 2740선 회복…코스닥도 올라</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415679&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8일 코스피가 외국인 순매수에 힘입어 2740선을 되찾았다. 전날 미 연방준비제도(Fed) 위원들의 매파적인 발언에 장 초반 약세를 보..</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:46:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HLB 간암신약, 유럽 허가 신청 '청신호'…소아임상계획 제출 면제</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035508&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>HLB는 유럽 의약품청(EMA)이 자사 간암신약 리보세라닙과 관련 신약허가 신청에 필요한 소아임상계획(PIP·Paediatric Inv..</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:44:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>‘2740대 회복’ 코스피…52주 신고가까지 불과 12포인트 남았다 [투자360]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305975&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>코스피가 8일 치열한 보합권 공방 끝에 상승해 2740선을 되찾았다. 이날 코스피 종가는 전 거래일보다 10.69포인트(0.39%) 오..</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:43:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HD현대마린솔루션 상장 첫날 '따블' 불발…시총 56위 안착[핫종목]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007528175&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>HD현대마린솔루션(443060)이 상장 첫날 96% 상승으로 장을 마쳤다. 상반기 기업공개(IPO) 최대 기대주로 꼽혔으나 '따따블'(..</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:36:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>美연준 추가 발언 관망…환율 3거래일째 1360원대[외환마감]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733920&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>원·달러 환율이 1360원 초반대에서 소폭 상승해 마감했다. 미국 연방준비제도(Fed·연준) 위원들의 추가 발언을 대기하며 환율 상승 ..</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:27:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>넷플릭스·엔비디아보다 낫다더니...힘 못쓰는 디즈니·AMD</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182418&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>글로벌 1등 기업의 추격자로 꼽히는 기업들의 주가가 힘을 받지 못하고 있다. 8일 인베스팅닷컴에 따르면 7일(현지시간) 뉴욕증시에서 월..</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>아이씨티케이 일반청약 흥행…경쟁률 1107대 1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300306&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>보안 반도체 설계(팹리스) 기업 아이씨티케이(ICTK)가 수요예측에 이어 일반청약에서도 흥행에 성공했다. 8일 증권업계에 따르면, 아이..</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>따블은 실패했지만…HD현대마린, 상장 첫날 97% 상승 [종합]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982038&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8일 유가증권시장에 상장한 HD현대마린솔루션이 장중 오름폭을 확대, '따블'(공모가 대비 100% 상승) 직전에서 신고식을 마쳤다. 한..</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:18:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>결국 美금리 내려갈텐데…"'배당귀족주' 투자 고려해볼 만"</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014675405&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>마켓워치 24개 종목 제안…"투자시 자체적으로 분석·판단 필요" 향후 미국의 기준금리 인하에 대비해 배당주 투자를 고려해볼 필요가 있다..</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SK텔레콤, 1분기 영업익 소폭 증가한 4천985억…"AI부문 성과"(종합2보)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014675403&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3년간 당기순이익 50％ 이상 주주환원…자사주 매입은 종합 검토" SK텔레콤은 연결 기준 올해 1분기 영업이익이 4천985억원으로 지난..</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:16:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>변동장세 속 인프라펀드 수익률 ‘차곡차곡’</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300296&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>경기회복에 中인프라 반등 외인투자에 인도도 오름세 변동장세 속에서도 인프라펀드가 견조한 수익률을 올렸다. 특히 중국 경기 부진에 수익률..</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:13:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>"필라이트 리콜에"…하이트진로 주가도 '급제동'[핫종목]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007528004&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>발포주인 필라이트에서 점액질이 검출됐다는 소식에 하이트진로 주가도 제동이 걸렸다. 주류 품질 관리에 대한 허점이 발견되면서 실적 우려가..</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:00:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>코스피 이틀 연속 올라 2,740대 회복…코스닥은 강보합(종합)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014675352&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>외국인 현·선물 순매수 지속…장중 내내 보합권서 공방 '숨고르기' 금융주 강세…전날 5% 오른 삼성전자 보합·SK하이닉스는 약세 코스피..</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:59:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>코스피, 이틀째 상승…외인, 7거래일째 '사자'</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004982015&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>코스피가 8일 보합 움직임 끝에 상승 마감했다. 한국거래소에 따르면 이날 코스피지수는 전일 대비 10.69포인트(0.39%) 오른 27..</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>불안한 금리 전망 속 강보합…숨고르기 장세[코스닥 마감]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733852&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>하락 출발한 코스닥 지수가 개인 투자자의 매수세 덕에 강보합 마감했다. 8일 마켓포인트에 따르면 이날 코스닥 지수는 전 거래일 대비 0..</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:43:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AI 지각생 애플의 반격카드는?[이지혜의 뷰]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733851&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>“대대적인 계획을 발표할 것이다” 애플이 독자적인 AI생태계를 구축하겠다고 천명했습니다. 올해 애플 신제품은 AI성능 향상에 주력했습니..</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>외국인 '사자'에 2740선 안착…HD현대마린 96%↑[코스피 마감]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733849&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>코스피 지수가 외국인의 순매수세에 힘입어 2740선에 안착했다. 일부 연방준비제도(Fed·연준) 위원들이 매파적인 발언에 장 초반 약세..</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:43:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>액면분할 시원찮네… 에코프로 다시 코스닥 3위로</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300230&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>국내 증시에서 대표적인 2차전지 관련주로 꼽히는 에코프로가 액면분할 이후 시가총액 순위가 하락했다. 8일 코스닥 시장에서 에코프로는 전..</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:40:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>골드만 "엔비디아 주가 22% 추가 상승 가능"…목표주가 상향</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014675225&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>인공지능(AI) 칩 선두 주자 엔비디아의 주가가 올해 들어서만 이미 81%나 상승했으나 여전히 상승 여력이 있다는 주요 투자은행(IB)..</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>코로나 때 펄펄 날던 기업들, 지금은 주가 3분의 1 하락</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014675196&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>시총 2천47조원 사라져…줌·링센트럴·펠로톤·테슬라 등 코로나바이러스 팬데믹 시대에 주가가 크게 오른 기업들이 코로나가 종료되자 맥을 ..</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:28:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>“돌아온 큰 손 될까”…옛 우리투자증권 컴백 두고 증권가 반응보니</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300217&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>우리종금·포스증권 합병법인 3분기 내 출범 10년 이내 탑10 진입 목표 두고 의문점 우리금융이 증권업계로 다시 돌아온다. (구)우리투..</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MG손보, 자산이전 방식 유력…본입찰 6월 전망</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305935&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MG손해보험 경영권 확보를 희망하는 복수의 원매자가 회사 지분을 인수하는 대신 보험계약과 우량자산을 이전받는 형태를 택할 전망이다. 원..</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>“서학개미 어떡해” 월가 큰 손, 엔비디아 팔고 이 주식 샀다</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300207&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>드러켄 밀러 “나는 버핏 아냐” 엔비디아 최고가 찍은 올해 3월 단기 고평가 논란 속 일부 매도 AI잠재력 불구 단기 과열 지적 ‘괴짜..</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:10:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>춘천 에이프릴바이오 공모 시총 규모 이상 성장</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000074048&amp;office_id=654&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>최근 5년간 신규 상장한 바이오 기업 32곳 중 공모 당시 시가총액보다 현재 시가총액이 높은 기업은 10곳에 불과한 가운데, 강원 도내..</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>강원도민일보</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>올해도 우주 산업 투자하는 '뉴스페이스 펀드' 나온다…총 100억원 규모</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981975&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>정부가 올해도 우주 산업 투자를 강화하기 위해 총 100억원 규모의 '뉴스페이스투자지원 펀드'를 조성한다. 경기 둔화 등의 여파로 자금..</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>실적 볕 드는 게임株…리니지 성공 공식 깨질까 [엔터프라이스]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161087&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>남극에는 겨울이면 몇 달 동안 해가 뜨지 않는 '극야' 기간이 있습니다. 이 기간 펭귄들은 알을 품 안에 꼭 품고, 영하 50도의 추위..</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:58:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>“배당 먹었으니 이제 이자 챙기자”…개미 4.7조 싸들고 ‘이것’ 샀다는데</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300198&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>채권 매수액 월별 기준 ‘역대 최대’ 개인투자자의 채권 매수가 역대 최고 수준으로 늘어난 가운데 최근 채권 금리 하락세에도 매수 추세가..</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>조정받던 전력기기주 다시금 반등세…삼전·하이닉스 떨어져도 오른다</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300192&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>HD현대일렉트릭 26만원 정조준 지난주 글로벌 인공지능(AI) 테마의 열기가 꺾이면서 조정을 받았던 전력기기 관련주들이 최근 다시 반등..</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>신세계 1분기 영업이익 7% 증가…백화점 총매출 최대(종합)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014674983&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1분기 영업이익 1천630억원…신세계까사 등 자회사 손익도 개선 코스피 상장사 신세계는 연결 기준 올해 1분기 영업이익이 1천630억원..</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>상승폭 확대에도 '따블' 직전 미끌…현대마린솔루션 89%↑[핫종목]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007527579&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>상반기 기업공개(IPO) 최대어로 꼽힌 HD현대마린솔루션(443060)이 장중 상승폭을 확대했으나 '따블'(상장 첫날 공모가 2배 상승..</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:39:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>대신증권, “지금이 하이브 저가 매수 적기”… 방탄소년단 돌아오면 고성장 지속</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300175&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>대신증권이 민희진 어도어 대표와의 분쟁으로 주가가 20만원 언저리에 머물고 있는 하이브를 저가 매수할 적기라는 분석을 내놨다. 8일 임..</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:34:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>'거래정지' 알에프세미, 새주인 찾는다[fn마켓워치]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182312&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>현재 거래 정지중인 코스닥 상장사 알에프세미가 공개 매각을 통해 새주인을 찾는다. 매각이 성사 된 이후 거래 재개까지 이어질수 있을지 ..</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>이번엔 '10만전자'·'20만닉스' 가나…외국인, 6개월 연속 '폭풍 매수'</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004338005&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>지난달 외국인 투자자들이 국내 증시에서 상장주식 2조6260억원어치를 순매수한 것으로 집계됐다. 금융감독원이 8일 발표한 '4월 외국인..</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>서울경제</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:15:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>하루만에 13% 급락 반전…상장 첫날 "183억 매수" 개미들 '눈물'</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035368&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>지난 7일 코스닥 시장에 입성한 초소형 2차전지 제조사 코칩이 13%대 급락 중이다. 8일 오후 1시 56분 기준 코스닥 시장에서 코칩..</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>네이버, 호실적 약발 떨어졌나…19만원대 '위태위태'[핫종목]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007527375&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>네이버(035420) 주가가 8일 급락하며 장 중 한 때 19만원 선이 무너졌다. 8일 오후 1시 59분 네이버는 전일 대비 4600원..</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:03:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>‘고사위기’ 코넥스 시장, 거래 대금 급감에 이전상장도 ‘0’</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002827832&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>중소기업의 코스닥 상장을 돕기 위해 설립된 코넥스 시장이 고사 중이다. 올해 신규 상장 기업 및 거래대금이 급감한 가운데 코스닥 이전 ..</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>데일리안</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>삼기아메리카, 美 현대차에 2800억 규모 eM 플랫폼 부품 계약</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305849&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>삼기와 삼기이브이가 공동 투자(지분 100%)한 삼기아메리카가 미국 현대자동차 조지아 서배너 공장에 전기차용 모터하우징 2종 공급업체로..</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2024-05-08 14:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>"아아 1잔 마실 바에 부동산 사자"…4300억 싸들고 달려간 이곳</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035355&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>국내 부동산 리츠·인프라 ETF(상장지수펀드)에 투자자들의 뭉칫돈이 몰린다. 높은 배당 수익과 주가 반등으로 인한 시세차익이라는 두 마..</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2024-05-08 13:58:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>본업도 재테크도 '대박'…한미반도체 부회장, 530억 또 '잭팟'</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981933&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>곽동신 한미반도체 부회장이 반도체 전공정 장비사 HPSP 지분을 또 다시 현금화했다. 8일 금융감독원 전자공시시스템에 따르면 곽 부회장..</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2024-05-08 13:49:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>엔비디아, 전설의 헤지펀드 매니저는 팔았는데…어쩌지(영상)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733664&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>세계 최대 AI(인공지능) 반도체 기업 엔비디아(NVDA)에 대해 월가에선 낙관론과 신중론이 맞서고 있다. 전설적인 헤지펀드 매니저는 ..</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2024-05-08 13:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>건강보험 보수총액 신고 관행 사라진다</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0003204439&amp;office_id=030&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>세무업계가 건강보험 보수총액신고 폐지에 반색하고 있다. 불필요한 행정절차 폐지에 따라 중소기업·소상공인도 과도한 업무 부담을 줄일 수 ..</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>전자신문</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2024-05-08 13:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>“좀 과한데” 디즈니, 기대에 못 미친 매출에 주가 급락(영상)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733638&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7일(현지시간) 뉴욕증시 3대 지수는 보합권 혼조세로 마감했다. 이날 닐 카시카리 미니애폴리스 연은 총재의 “인플레이션 상황에 따라 금..</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2024-05-08 13:10:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>증권사 1Q 서프라이즈' 행진…부동산PF 부담에 '반짝' 실적 개선 우려</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0003204421&amp;office_id=030&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>국내 주요 증권사가 연이어 '어닝 서프라이즈' 소식을 전하고 있다. 국내 증시의 거래대금 증가와 더불어 지난해 발생한 부동산 프로젝트파..</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>전자신문</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024-05-08 13:06:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>연 3%대 대출했더니 실제로는 4%대... "실행일 기준 주의해야"</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000800128&amp;office_id=469&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>지난해 이사를 염두에 두고 주택담보대출(주담대)을 알아보던 안모씨는 다른 은행에 비해 훨씬 낮은 연 3%대 금리로 대출이 가능하다는 정..</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>한국일보</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2024-05-08 13:01:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>연준 내 매파 목소리에 ‘강달러’…장중 환율, 1360원 중반대로 상승[외환분석]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733617&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>원·달러 환율이 장중 1360원 중반대로 상승했다. 비둘기(통화완화 선호) 신호를 보낸 제롬 파월 미국 연방준비제도(Fed·연준) 의장..</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2024-05-08 12:07:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>"9만전자 가나"…삼성전자 '폭풍 매수' 한 달 새 2조 쓸어담았다</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981916&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>지난달 외국인 투자자들이 국내 증시에서 상장주식 2조6260억원어치를 순매수한 것으로 나타났다. 이들은 6개월 연속 국내 주식을 순매수..</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2024-05-08 12:02:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>밸류업 기대 이어졌나…외국인 반 년째 주식 '바이 코리아'</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035321&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>외국인의 국내 상장주식 순매수세가 6개월 째 이어지고 있다. 다만 지난달 코스닥 시장에서는 순매도세를 보였다. 상장채권은 다시 순투자세..</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2024-05-08 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HD현대마린 상장일 ‘따상’ 어려울듯… 외국인 ‘매도 폭탄’ 우려 여전</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002636130&amp;office_id=021&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>장 초반 공모가는 웃돌아 단기 차익실현 지속될 우려 공모주 청약에만 25조 원이 몰린 올해 상반기 기업공개(IPO)시장 ‘최대어’인 H..</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>문화일보</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:52:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>드디어 바닥 찍고 반등? 게임주 상승에도 증권가는 '글쎄'</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035311&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>장기간 주가 하락이 이어졌던 주요 게임주들이 최근 반등을 시작하면서 바닥을 지났다는 기대감이 나온다. 과도한 하락에 따른 기술적 반등은..</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:49:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>증권업 재도전 나선 우리금융, '각양각색' 업계 반응 왜</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000286395&amp;office_id=629&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>우리종합금융·한국포스증권 합병 후 증권사 출범 의결 규모 작아 갈 길 멀고 사명 논란 감지도 우리금융지주가 우리투자증권(현 NH투자증권..</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>더팩트</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:47:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>하이퍼코퍼레이션, BTS '화양연화' 드라마 론칭 성공 "IP 공유 대중화 시대 연다"</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035305&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>브랜드 액셀러레이터 FSN이 인수한 하이퍼코퍼레이션이 콘텐츠 IP(지식재산권) 유통 사업을 본격화하고 있다. 첫번째 IP인 드라마 '비..</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:40:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>증권사, 최악은 지났나…2분기 실적 관건은</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0012533683&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>국내 증권사 1분기 실적이 하나둘씩 발표되는 가운데 대형사 중 하나인 한국투자증권이 분기 순이익 사상 최대치를 경신하는 등 실적 회복이..</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>美 반도체 주춤에 '18만닉스' 붕괴…삼전도 하락[핫종목]</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007526920&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>간밤 미국 증시에서 엔비디아 등 반도체주의 부진한 모습에SK하이닉스(000660)도 장중 1% 이상 하락하고 있다. 삼성전자(00593..</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>코스피 장중 2,730대서 보합권 공방…코스닥은 약세</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014674280&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>하락 출발 뒤 강보합…외국인 장중 순매수로 전환 금융주 강세, 전기전자 약세…코스닥 시총상위 제약주 약세 코스피가 8일 장 중반 2,7..</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>반도체 기대감 지속…하나마이크론 순매수 1위[주식 초고수는 지금]</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004337924&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>미래에셋증권에서 거래하는 고수익 투자자들이 7일 오전 가장 많이 순매수한 종목은 하나마이크론(067310)으로 나타났다. 폴라리스오피스..</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>서울경제</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>한국앤컴퍼니, 한온시스템 인수...득될까 독될까</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305763&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>조현범 한국앤컴퍼니그룹 회장이 반년 사이 급변하는 경영 환경을 마주하고 있다. 지난해 말 MBK파트너스가 한국앤컴퍼니 적대적 인수합병(..</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>홍콩 H지수 ELS&lt;단일자산&gt; 발행 13년만에 최대</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305761&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>홍콩H지수(이하 H지수) 주가연계증권(ELS)에 따른 투자 손실 사태의 여파가 이어지는 가운데서도, 올 들어 H지수 ELS 신규 발행액..</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:18:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>‘상반기 최대어’ HD현대마린 상장</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305760&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>상반기 기업공개(IPO) 시장 ‘최대어’인 HD현대마린솔루션이 8일 유가증권시장에 상장됐다. 연초 대비 IPO 열기가 잠잠해지면서, 시..</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>“알트코인 대장이라더니 정말 최악”…눈물 흘리는 개미, 무슨 일? [매일코인]</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300010&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>올해 상승세 아쉬운 이더리움 비트코인 비해 3년만에 최악 현물 ETF 승인 여부도 불투명 “이더리움은 정말 최악이네요.” 최근 코인투자..</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:01:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ETF 140조 시대라지만... “국내 주식형은 안합니다”</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991105&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3개월간 국내 주식형 ETF 설정액 6000억원 감소 해외 주식형은 미국 중심으로 3조원가량 늘어 “투자자 관심 끌려면 성과 좋은 액티..</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2024-05-08 11:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1분기 어닝서프라이즈 살펴보니…화학·반도체 약진</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005300000&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>국내 상장사들의 1분기 실적 발표가 이어지고 있는 가운데 60% 이상이 ‘어닝 서프라이즈(깜짝 실적)’을 기록한 것으로 나타났다. 시장..</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:55:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>블록버스터 영화 사라진 디즈니···매출 부진에 주가 10% 급락</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005299992&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4개 분기 연속 매출 컨센 하회 OTT·테마파크는 선방했지만 TV·영화 사업 수익성 악화돼 ‘콘텐츠 제국’ 월트디즈니컴퍼니의 매출액이 ..</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>급등에 급등…어제는 12%, 오늘은 18% [백브리핑]</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161051&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>최근 우리 증시 실적 랠리 기대감이 큽니다. 주요 상장사들의 1분기 어닝서프라이즈가 잇따르고 있기 때문인데요. PI첨단소재도 실적 개선..</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:51:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>상반기 IPO대어 일냈네…주가 '따블' 급등 [백브리핑]</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161050&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>올해 상반기 IPO 최대어 HD현대마린솔루션이 코스피에 입성했죠. 거래 첫날 40%대 상승률 보이고 있습니다. 반면 모회사 HD현대는 ..</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:49:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>한양證 "아이텍, 시스템 반도체 테스트업체 강자..AI 및 전장용 반도체 독점 가능성↑"</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182164&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>한양증권은 8일 아이텍에 대해 시스템반도체 테스트업체 강자로서 향후 초미세 선단 공정에서 양산되는 AI 및 전장용 반도체의 테스트도 독..</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:47:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>위메이드, 올해 흑전 ‘정조준’…매출은 늘리고 비용은 줄이고[컨콜 종합]</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005299980&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>위메이드(대표 박관호)가 올해 영업이익 흑자전환에 도전한다. ‘나이트 크로우’ 글로벌의 흥행과 3분기 출시할 신작 ‘레전드 오브 이미르..</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>“옷이 안팔린다” 한섬 목표주가 줄하향</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005299979&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>“대중성보다 개성 중시하는 시대 고물가 겹치며 내수 기성복 타격” KITH 독점계약으로 외연확장 기대 국내 대표 의류 브랜드 한섬이 1..</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:44:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>새내기 바이오주 외면…5년간 공모 시총 유지 기업 10개뿐</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014674100&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=6</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>키움증권 "시총 1천억 이하 기관 접근 쉽지 않아…시장과 소통 중요" 최근 5년간 상장한 바이오 기업들 중 현재 시가총액이 상장 당시 ..</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>골드만 "자사주 매입, 美증시 5·6월 상승 견인할 듯"</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014674092&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>다우, 작년 12월 이래 최장 상승…S&amp;P500, 3월 이후 첫 4거래일 연속 올라 투자은행 골드만삭스는 미국 기업들의 자사주 매입이 ..</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:36:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>개인 매도에 '18만닉스' 붕괴… 삼성전자, 8만원 유지 안간힘[STOCK]</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001001223&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>삼성전자 주가가 8일 하락 전환했다. 한국거래소에 따르면 이날 오전 10시24분 삼성전자는 전 거래일 보다 300원(0.37%) 내린 ..</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:28:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>증권가 목표가 줄줄이 높이자…고려아연, 2%대 강세</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005299953&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>고려아연이 증권사의 목표주가 상향 조정에 힘입어 주가가 강세다. 8일 오전 10시 10분 현재 고려아연은 전일대비 1만3500원(2.8..</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:20:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>“파월 못 믿어” 미국인 신뢰도 여전히 30%대</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415383&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>미국 통화정책을 이끄는 제롬 파월 연방준비제도(Fed) 의장에 대한 미국인의 신뢰도가 역대 최저 수준에서 크게 벗어나지 못하고 있다. ..</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>에코프로, 실적 악화 우려에 연일 하락…10만원대 또 깨졌다[핫종목]</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007526548&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2차전지 대장주인 에코프로(086520)가 전기차 '캐즘'(수요 정체)의 여파로 인한 실적 우려에 연일 하락세다. 8일 오전 9시 45..</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>'기우에 불과했다'...HD현대마린솔루션, 각종 우려 불구 '급등' [권영훈의 증시뉴스 PICK]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161032&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>시장과 종목에 영향을 미치는 뉴스들을 전합니다. ◆ '기우에 불과했다'...HD현대마린솔루션, 각종 우려 불구 '급등' 첫번째 뉴스픽입..</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>상장 반년 만에…퀄리타스반도체, 유상증자 결정에 21%대 급락</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005299948&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>지난해 10월 코스닥 시장에 입성한 퀄리타스반도체가 약 600억원 규모의 유상증자 결정에 20% 이상 급락하고 있다. 8일 오전 10시..</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:15:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>홍콩 ELS 사태 피눈물 아직 안 말랐는데…高위험 ELS 발행 급증, 왜?  [투자360]</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305641&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>홍콩H지수(이하 H지수) 주가연계증권(ELS)에 따른 투자 손실 사태의 여파가 이어지는 가운데서도, 올 들어 H지수 ELS 신규 발행액..</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:13:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>퀄리타스반도체, 대규모 유상증자 결정에 20%대 급락[핫종목]</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007526528&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>지난해 10월 말 코스닥 시장에 상장한 퀄리타스반도체가 유상증자 소식에 20% 넘게 급락했다. 8일 한국거래소에 따르면 오전 9시 51..</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:12:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>“이전엔 1%대였는데”... 회사채 발행 나선 GS건설, 이번엔 5%후반 금리 볼 수도</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991085&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>지난달 회사채 현금 상환한 GS건설, 새로 2000억원 발행 준비 신용등급 A+에서 A로 강등... 이자부담 급증 건설업종 투심 악화에..</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:01:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>"역대급이라더니 치킨값도 못 벌어"…따따블 노린 개미들 '실망'</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981820&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>따따블은 무슨…치킨값도 못 벌었네." (종목토론방) 8일 상반기 '최대어'인 HD현대마린솔루션이 유가증권시장에 상장했다. 2년 전 상장..</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2024-05-08 10:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>“9거래일 새 300억”···개인이 미는 'ACE 커버드콜' 3형제</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182093&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>한국투자신탁운용이 같은 날 내놓은 커버드콜 상장지수펀드(ETF) 3종이 상장 이후 합산 개인 순매수 300억원을 넘겼다. 연 15% 목..</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:57:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>송강호 드라마 데뷔에 400억 썼는데...주가는 10% 가까이 폭락</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182089&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>'콘텐츠 명가' 월트디즈니의 주가가 10% 가까이 폭락했다. 월트디즈니의 스트리밍 서비스 '디즈니플러스'는 처음으로 분기 이익을 냈지만..</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:56:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>약달러 무역에 좋다던 美므누신 "강달러, 경제에 도움돼"</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415359&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>스티븐 므누신 전 미국 재무부 장관은 7일(현지시간) 강달러가 미 경제에 도움이 될 것이라고 밝혔다. 또한 대규모 재정적자에 대한 우려..</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:55:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>호실적과 글로벌 신작 출시에…게임주 강세</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981818&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>게임주가 동반 강세를 보이고 있다. 넷마블의 ‘나 혼자만 레벨업’의 글로벌 출시, 데브시스터즈의 1분기 흑자전환, 리니지M의 애플 앱스..</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:55:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>코스피지수 상승전환…코스닥은 하락</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415357&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>8일 코스피지수가 약보합세를 보이고 있다. 미 연방준비제도(Fed) 당국자들의 금리 인상 시사 발언으로 뉴욕증시가 혼조세를 보인 영향으..</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:53:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>냉온탕 반도체주…美반도체 하락에 삼성전자·SK하이닉스 '파란불'</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981813&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>미 반도체주 하락에 국내 주식시장에서 삼성전자와 SK하이닉스 등 반도체주가 동반 내림세다. 8일 오전 9시39분 현재 삼성전자는 전일 ..</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>"소문난 잔치에 먹을 것 없네"…'따블'도 못한 HD현대마린솔루션[핫종목]</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007526397&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>올해 상반기 기업공개(IPO) 최대어로 꼽히는 HD현대마린솔루션(443060)이 상장 첫날 40%대 상승 중이다. '따따블'(공모가 대..</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>리프트 실적개선에 시간외서 14%↑…리비안 생산량 전망 유지</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014673891&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>틴더 모기업 부진 전망에 주가↓…펠로톤, 사모펀드 인수설에 20%↑ 팔란티어 주가, 기대 이하 실적 전망에 15% 하락 미국의 차량호출..</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>한국앤컴퍼니, 한온시스템 인수 득될까 독될까 [딜있슈]</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305598&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=7</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>조현범 한국앤컴퍼니그룹 회장이 반년 사이 급변하는 경영 환경을 마주하고 있다. 지난해 말 MBK파트너스가 한국앤컴퍼니 적대적 인수합병(..</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>美 부동산 리스크, 금융위기 불러올까?…전문가의 답변은</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035187&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>미국 상업용 부동산 대출의 신용 위험이 금융권 전반에 시스템 위기로 전이될 가능성은 작다는 전망이 나왔다. 이지스자산운용은 이같은 전망..</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:40:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>PI첨단소재, 2분기 실적 개선 기대감에 급등</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981805&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>PI첨단소재가 급등하고 있다. 2분기엔 실적이 개선될 것이란 증권가 분석이 잇따른 영향이다. 1분기 실적을 컨센서스(증권사 추정치 평균..</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>‘월가 마진콜 사태’ 한국계 투자자 빌 황, 8일 형사재판 개시</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415324&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2021년 월가 파생금융상품 마진콜 사태를 일으킨 한국계 미국인 투자가 빌 황(한국명 황성국)의 형사재판이 8일(현지시간)부터 열린다...</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:35:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>코스피, 약세 출발 뒤 상승 전환 2,740 회복…코스닥 강보합(종합)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014673853&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>외국인 '팔자'…전날 오른 삼성전자·SK하이닉스 약세 전환 美증시 AI반도체 투심 약화…"금리 하락 기대감으로 지수방어 가능" 코스피가..</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:30:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>금리인하 매파 전망에…코스피, 하루 만에 주춤</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002872350&amp;office_id=029&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>연내 금리인하 기대감이 되살아나며 강세를 보였던 코스피가 하루 만에 주춤하고 있다. 시장에서 매파(통화긴축 선호)적 전망이 나오면서 간..</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>디지털타임스</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:30:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>국내 증권사, 2Q 부동산PF 충당금 인식이 실적 변수 - KB</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000834660&amp;office_id=031&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>KB증권은 8일 국내 증권사의 4월 동향에 대해 브로커리지 부문은 전월 대비 둔화됐지만, 양호한 흐름이 지속되고 있고 트레이딩 손익 환..</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>아이뉴스24</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>신한證 “美 증시, 하반기 둔화 가능성…상반기比 주식 매수↓”</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002827608&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>미국 증시가 올 하반기에도 우호적인 수급 환경을 지속할 것으로 관측되지만 탄력이 둔화될 수 있다는 주장이 제기됐다. 김성환 신한투자증권..</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>데일리안</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>개미들 또 치고 빠지나…삼성전자, 급등 다음날 하락 전환[핫종목]</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007526282&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>삼성전자(005930) 전날 5% 가까이 올랐던 삼성전자(005930)가 8일 하락 전환했다. 8일 오전 9시 16분 삼성전자 주가는 ..</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>에스엠 신인 걸그룹, '블랙핑크'급 화력 기대...엔터 최선호주-대신증권</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182046&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>대신증권이 올해 하반기 에스엠의 성장세가 기대된다고 평가했다. 이에 하반기 엔터테인먼트 업종의 최선호주로 꼽았다. 투자의견은 '매수',..</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>美연준 내 매파 발언…환율, 장중 1360원 초반대 보합권</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733442&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>원·달러 환율이 장중 1360원 초반대의 보합권에서 등락하고 있다. 미국 연방준비제도(Fed·연준) 내에서 금리 인상 가능성이 대두되면..</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>스티펠 회장 "올해 한차례 금리인하도 놀라워"</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161016&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>글로벌 투자은행 스티펠을 이끌고 있는 론 크루셥스키 회장 겸 최고경영자(CEO)가 시장의 금리인하 기대감에 선을 긋고 나섰다. 7일(현..</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>코스피, 약보합 출발… 美 금리 인하 기대 엇갈려</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991060&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>8일 코스피 지수와 코스닥 지수가 약보합세를 보인다. 미국 연방준비제도(Fed·연준)의 올해 기준금리 인하에 대한 전망이 엇갈리면서 간..</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>코스닥, 불안한 금리 전망에 약세 출발…870선↓</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733424&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>코스닥 지수가 금리 인하 지연 우려에 따른 투자 관망심리 강화에 약보합 출발했다. 8일 마켓포인트에 따르면 오전 9시6분 현재 코스닥 ..</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:13:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>계속되는 커버드콜 개인 순매수세…월중 배당 원한다면?</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035165&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>한국투자신탁운용은 지난달 상장한 커버드콜 상장지수펀드(ETF) 3종에 개인 순매수세가 이어지고 있다고 8일 밝혔다. 3종의 커버드콜은 ..</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:10:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>‘상반기 최대어’ HD현대마린 상장…IPO 시장 다시 붐업되나 [투자360]</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305555&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>상반기 기업공개(IPO) 시장 ‘최대어’인 HD현대마린솔루션이 8일 유가증권시장에 상장됐다. 연초 대비 IPO 열기가 잠잠해지면서, 시..</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:08:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>고배당 은행株 싹 담았더니 3000억 모였다…이 ETF는 무엇?</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035159&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>미래에셋자산운용은 TIGER 은행고배당플러스TOP10 ETF(상장지수펀드) 순자산이 3000억원을 돌파했다고 8일 밝혔다. 한국거래소에..</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:05:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>'금리 인하' 기대에도 힘 못쓰는 배터리주…반등은 언제 오나</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981765&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>국내 증시가 상승세를 타고 있는 가운데, 2차전지 섹터만은 힘을 못 쓰고 있다. 전기차의 수요부진으로 성장성이 꺾인데다 미국이 대선국면..</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>"금속가격·환율 상승에 2분기도 호실적"…고려아연 목표가 '줄상향'</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981764&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>고려아연이 2분기에는 금속 가격 상승에 따른 호실적을 기록할 전망이다. 자회사들의 실적 정상화도 이어질 것으로 기대된다. 증권가에선 이..</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2024-05-08 09:00:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>아이텍, 반도체 검사장비 매출 지속 증가 전망-한양</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733391&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>한양증권은 8일 아이텍(119830)에 대해 시스템 반도체 테스트 전문 업체로 발돋움하면서 전기차 시장 확대로 전장용 반도체 분야 검사..</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>15% 폭락한 'AI계의 숨은 진주'..."지금이 살 기회"</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182016&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=8</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>월가에서 인공지능(AI)계 관련주의 '숨은 보석'으로 불리는 팔란티어가 부진한 실적 전망 때문에 15% 이상 폭락했다. 하지만 일각에서..</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:57:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>쿠팡, 적자 전환에 주가 -5%… 신영證 “편입한 파페치 빼면 영업익 증가”</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991054&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>쿠팡이 8일(한국시각) 장 마감 후 올해 1분기 영업이익이 지난해 동기보다 줄고 당기순손실을 기록했다고 밝히자, 시간 외 거래에서 주가..</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:57:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>HD현대일렉트릭 변압기 북미 유통 맡은 '현대코퍼레이션'...저평가 탈출 모멘텀 주목</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005182007&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>최근 AI산업의 급성장에 따른 '변압기' 수요가 폭증하는 가운데 '변압기 명가' HD현대일렉트릭의 북미 지역 공급 판매 벤더가 현대코퍼..</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:50:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>한국투자증권, 1조 클럽 가입하나… "9500억 순이익 전망"[STOCK]</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001001181&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>한국금융지주의 자회사 한국투자증권의 지난 1분기 순이익이 사상 최대치를 경신했다. 자산관리와 투자은행(IB), 브로커리지(위탁매매) 부..</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:46:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>카카오페이, 주가 하락 요인 제한적-신한</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000834642&amp;office_id=031&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>신한투자증권은 8일 카카오페이에 연결과 별도의 손익 차이가 좁혀지지 않고 있는 점은 아쉽지만, 네이버페이와의 오프라인 결제 경쟁 구도에..</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>아이뉴스24</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:44:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>아이텍, 테스트 하우스 업체의 숨은 보석-한양증권</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000834640&amp;office_id=031&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>한양증권은 8일 아이텍이 테스트 하우스 업체의 숨은 보석이라고 밝혔다. 아이텍은 시스템 반도체 테스트 전문 업체다. 주요 테스트는 조립..</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>아이뉴스24</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>HD현대마린솔루션, 오늘 상장…'따따블' 기대해도 될까? [이슈레이더]</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161004&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>올해 상반기 IPO 최대어로 꼽히는 HD현대마린솔루션이 오전 9시 개장과 함께 코스피 시장에 데뷔합니다. HD현대마린은 선박 수리와 유..</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:38:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>"닌텐도, 스위치2 출시연기…실적부진 지속 전망"[클릭 e종목]</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415264&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>한국투자증권은 8일 일본에 상장된 닌텐도에 대해 "스위치2의 출시 일정을 내년 1분기로 연기했기 때문에 올해 실적 부진이 이어지겠다"고..</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:37:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>"방탄소년단이 돌아온다…하이브 주식, 떨어지면 '줍줍' 기회"</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035131&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>대신증권은 하이브가 올해 저연차 IP(지적재산권) 활약을 바탕으로 양호한 성장세를 보일 것으로 8일 전망했다. 방탄소년단의 완전체 컴백..</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:33:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>금리 인상 가능성 ‘매파 발언’…환율 1360원대 안착[외환브리핑]</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733359&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>원·달러 환율은 1360원대로 안착이 예상된다. 미국 연방준비제도(Fed·연준) 내에서 금리 인상 가능성이 대두되면서 달러화가 강세를 ..</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:33:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>카시카리의 매파 발톱…국고 3·10년 스프레드, 한 달래 최저치[채권브리핑]</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733354&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>8일 국내 국고채 시장은 간밤 미국채 금리 흐름을 반영하며 보합 출발할 것으로 전망된다. 시장이 주목한 닐 카시카리 미니애폴리스 연방준..</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>고려아연, 아연 가격 상승으로 투심 개선…2Q도 기대-현대차</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000834634&amp;office_id=031&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>현대차증권은 8일 고려아연에 2분기도 견조한 실적을 기대한다고 분석했다. 목표주가는 67만원, 투자의견 '매수'를 유지했다. 고려아연의..</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>아이뉴스24</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>키움證 "고려아연, 비철·귀금속가격 상승에 실적 기대…목표가↑"</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0012532984&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>키움증권은 8일 고려아연에 대해 "제련수수료 하락에도 지난달 이후 비철·귀금속가격이 상승하면서 2분기 이후 실적 기대치가 높아질 전망"..</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>어제는 “인하” 오늘은 “인상” 美 연준 내부 ‘피벗 갑론을박’…‘9만전자’ 향해 질주 가능할까 [투자360]</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305518&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>미국 연방준비제도(Fed·연준) 내 주요 인사들 간에 연내 피벗(pivot, 금리인하)을 둘러싼 발언이 엇갈리고 있다. 금리 인하를 시..</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>‘日 증시’ 구해낸 글로벌 행동주의 펀드! 다음 타깃으로 왜 韓·中 증시 주목하나? [한상춘의 지금세계는]</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001161001&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>요즘 글로벌 행동주의 펀드들의 움직임을 보면 앞으로 어느 국가의 증시가 뜰 것인지를 알 수 있다고 하는데요. 지난 1년 이상 동안 일본..</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>"엔터업종, '상저하고' 전망…비중확대 전략 유효"</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733346&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>국내 엔터테인먼트 업종이 실적 측면에서 ‘상저하고’ 형태에 흐름을 보일 것이라는 전망이 나왔다. 임수진 대신증권 연구원은 2분기와 4분..</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>이베스트證 "한국금융지주, 올해 9500억 순이익 전망…목표가↑"</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0012532976&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>이베스트투자증권이 8일 한국금융지주에 대해 "올해 업황 개선을 바탕으로 9500억원 이상의 순이익 창출이 가능할 것으로 예상한다"며 "..</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>철자도 몰랐던 기업으로 6배…월가 전설 "엔비디아 팔았다" [글로벌마켓 A/S]</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001160996&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>미국 뉴욕증시가 금리인하에 대한 기대 속에 상승세를 이어갔다. 그러나 대형 투자자인 스탠리 드러켄밀러가 인공지능 열풍으로 크게 오른 엔..</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:14:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>"코스피, 대형주 중심 하락 출발 예상"[굿모닝 증시]</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415239&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>8일 코스피는 반도체 등 대형주 중심으로 하락 출발할 것으로 예상된다. 전날 미국 뉴욕증시의 3대 지수는 보합권에서 혼조세로 마감했다...</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:11:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>오락가락하는 금리 전망…코스피 2,700대 안착할까[마켓뷰]</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0014673630&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>연준 매파 전망에 금리인하 기대 엇갈려…코스피 보합권 출발 예상 강력한 외국인 순매수에 추가 상승 여운…차익실현 압력 커질듯 8일 국내..</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:06:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>뉴욕증시, 엇갈린 금리 인하 전망에 보합 마감…나스닥 0.1%↓[뉴스새벽배송]</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733335&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=9</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>뉴욕증시가 거의 변동 없이 보합세로 마감했다. 투자자들이 연방준비제도(연준)의 금리인하 시기 및 횟수에 촉각을 곤두세우며 관망세를 유지..</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:05:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>‘ETF 아버지’ 배재규 “개인 투자, 최소 5년은 봐야…‘장기·분산투자’가 답” [이코노 인터뷰]</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000059314&amp;office_id=243&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>“상장지수펀드(ETF)는 올해 주식시장에서 가장 뜨거운 키워드 중 하나입니다. 전체 펀드 시장에서 가장 성장 여력이 큰 ETF 시장에선..</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>이코노미스트</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>광고 '빅2' 제일기획·이노션 호실적…주가도 웃을까</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035112&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>주요 광고회사들이 부진한 업황에도 1분기 호실적을 발표했다. 증권가에서는 하반기에 예정된 2024 파리 하계올림픽과 미국 대통령 선거 ..</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>한국금융지주, 1Q 깜짝실적에 가격매력까지…목표가 5%↑-KB</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733328&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>KB증권은 8일 한국금융지주(071050)가 시장 기대치를 웃도는 1분기 실적을 낸 가운데, 가격 매력을 보유하고 있다고 평가하며 목표..</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2024-05-08 08:00:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>"뭐야, 치킨도 못 사 먹네"…따따블 실종한 IPO 시장</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035109&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1주도 간신히 받았는데 청약 수수료 생각하면 남는 게 없다" 최근 배정받은 공모주를 매도한 20대 투자자 정모씨의 말이다. 올해 초 '..</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:59:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>고려아연, 본업 수익성 개선…업종 내 최선호주 -유진</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733327&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>유진투자증권은 8일 고려아연(010130)에 대해 이익 개선이 가시화되고 있다고 판단했다. 고려아연을 업종 내 최선호주로 추천했다. 투..</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>지금이 리츠 투자 적기라는데…국내 리츠 주목해야 하는 이유</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005035107&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>다시 리츠에 투자하기 좋은 시점이 오고 있습니다. 포트폴리오 다변화를 위해 리츠는 투자자에게 중요한 투자 수단입니다. 해외 리츠는 상대..</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>매파 전망에 금리인하 기대감 축소… 다우 5거래일째 상승[뉴욕증시]</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001001163&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>미국 뉴욕증시가 연방준비제도(Fed·연준)의 금리인하 향방을 두고 전망이 엇갈리면서 혼조세로 마감했다. 7일(현지 시각) 뉴욕증권거래소..</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>하나證 “고려아연, 귀금속 가격 상승에 자회사 수익성 개선”</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991042&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>하나증권은 고려아연에 대해 귀금속 가격 상승과 자회사 수익성 개선에 힘입어 시장 기대치에 부합하는 실적을 냈다고 8일 분석했다. 하나증..</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:32:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>금투세, 중위 소득 가구에 상대적 이득?…“하위·상위 가구 稅부담 커” [투자360]</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002305485&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>금융투자소득세(이하 금투세)를 부과하면 총자산 규모가 중간 분위에 해당하는 가구의 세 부담이 다른 분위의 가구보다 낮다는 연구 결과가 ..</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>헤럴드경제</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>미국 금리인하 불투명…다우 5거래일째 상승 [뉴욕증시 브리핑]</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004981735&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>뉴욕증시는 미국 중앙은행(Fed)의 올해 금리인하 향방을 두고 전망이 엇갈린 가운데 혼조세로 마감했다. 7일(현지시간) 뉴욕증권거래소(..</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>신도리코 사주 우석형, 代물림 한 수만 남았다[거버넌스워치]</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000025483&amp;office_id=648&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>중견 사무기기 그룹 신도리코의 사주가 대물림의 사실상 마지막 한 수만을 남겨놓았다. 장남의 경영 입문을 신호탄으로 연쇄적인 계열 지배구..</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>비즈워치</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>광주 랜드마크 ‘전방·일신방직 부지 개발’ 8400억 브리지론 조달</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415195&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>광주광역시 최대 복합개발로 꼽히는 전방·일신방직 부지 개발 사업에 사용할 8400억원 규모의 브리지론(초기 사업비 대출) 조달이 성사됐..</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:09:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>'우리투자증권' 10년 만의 부활 예고에…때아닌 '상도의' 논란</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007526029&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>우리금융그룹이 10년 만에 '우리투자증권' 부활을 선언하면서 증권업계에서는 때아닌 '상도의 논란'이 불거졌다 과거 농협금융지주에 우리투..</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>기대 이하 실적에 ‘뚝뚝’…에코프로 3형제 반등 언제쯤 [이코노 株인공]</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000059313&amp;office_id=243&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>매주 수요일 아침, 빠르게 변하는 주식 시장에서 주목할 종목을 짚어 드립니다. 한 주 동안 투자자들의 관심이 집중된 주식을 ‘이코노 주..</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>이코노미스트</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>‘빅3’ 자리 위협받는 KB자산운용…바짝 쫓는 한투운용, 점유율 꿈틀</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000059312&amp;office_id=243&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>국내 자산운용사의 상장지수펀드(ETF) 시장 경쟁이 과열되면서 순자산총액(AUM) 규모와 실적 등의 순위가 급변하고 있다. 삼성자산운용..</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>이코노미스트</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:01:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>미뤘던 가족여행 올해는 떠나볼까…여행·항공株도 설레는 5월</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002827551&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>가정의 달인 5월을 맞아 여행 수요가 증가하면서 여행·항공주를 향한 투자 심리가 되살아나고 있다. 여행 성수기 진입과 맞물려 신종 코로..</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>데일리안</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:01:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>증권채 흥행 속 발행 '온도차'…중·소형사는 '몸 사리기'</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002827550&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>대신·KB·키움·교보증권이 부동산 프로젝트파이낸싱(PF) 우려에도 불구하고 회사채 발행을 위한 수요예측에서 ‘완판 행진’을 이어가고 있..</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>데일리안</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2024-05-08 07:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>잇따르는 매파 연준 발언 불구 다우 5일째 상승 [출근전 꼭 글로벌브리핑]</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001160987&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>뉴욕증시가 금리인하 시기에 대한 전망이 엇갈리면서 최근 연속 상승세에서 벗어나 혼조세로 이번주 두번째 거래일의 장을 마감했다. 국채 수..</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>손실 난 미국주식도 환율 때문에 세금 낼 수 있다</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000025480&amp;office_id=648&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>해외주식에 투자하는 이른바 서학개미들이 부쩍 늘었는데요. 최근에 이분들 중 상당수는 증권사앱에서 세금신고 안내 알림을 받으셨을 겁니다...</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>비즈워치</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:31:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>시장 자금 25조원 빨아들인 HD현대마린 코스피 데뷔…'따따블' 갈까</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007526012&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=10</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>올해 상반기 기업공개(IPO) 최대어로 꼽히는 HD현대마린솔루션(443060)이 8일 코스피에 상장한다. HD현대마린솔루션은 공모 청약..</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:30:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>삼성전자, AI 반도체 추격…전고점 돌파 노린다</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415178&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>삼성전자가 다시 '8만전자'로 복귀하면서 전고점 돌파에 시장의 이목이 집중되고 있다. 증권가에서는 인공지능(AI) 반도체에서 경쟁사와의..</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>K-화장품 ETF, 한 달 반 만에 30%↑…투심 회복에 K-ODM 성장도 '주목'</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0007525997&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>화장품주(株) 투심이 급속도로 회복됐다. 대형부터 중소형까지 급등하며 지난달엔 화장품 관련 상장지수펀드(ETF)가 전체 상승률 1위를 ..</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>삼현, 상장 2개월 만에 공모가 부근까지 후퇴</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415175&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>모션 컨트롤 개발업체 삼현 주가가 코스닥 시장에 상장한 이후 줄곧 뒷걸음질 치고 있다. 8일 한국거래소에 따르면 삼현 주가는 전일 3만..</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>주도주 부재…증시 맴도는 초단기 자금 늘었다</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415172&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>증시 주변을 맴돌고 있는 자금이 늘고 있다. 투자 열기를 가늠해볼 수 있는 투자자 예탁금 규모는 줄고, 증시 대기자금 성격을 띠는 종합..</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>은행 ELS 배상 시작했는데… 똑같은 상품 판 증권사는 감감무소식</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000991037&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>일부 증권사, ELS 불완전판매 사례 확인됐는데도 뭉그적 관련 이사회도 없어... 금감원 분조위·제재심 이후 논의할 듯 홍콩H지수 주가..</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:02:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>90弗 뚫는다던 유가 안정되자…원유 ETF·ETN 수익률 곤두박질</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004337744&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>중동의 지정학적 리스크가 극에 달하면서 배럴당 90달러를 넘어설 것으로 전망되던 국제유가가 예상 밖 안정세를 보이고 있다. 그러면서 관..</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>서울경제</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>운용사 ETF 대격돌…미래에셋 '맹공', '삼성' 아성 넘보나</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000059310&amp;office_id=243&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>국내 상장지수펀드(ETF) 시장에서 나란히 업계 1?2위를 달리고 있는 삼성자산운용과 미래에셋자산운용 간의 점유율 격차가 점차 좁혀지며..</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>이코노미스트</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>600억 성과급 소송…카카오 김범수·정신아, 증인 출석할까</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415167&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>'브라이언'과 주고받은 메일이 꽤 많습니다. 증인으로 불러야만 정확한 진실을 발견할 수 있을 것입니다." "미국명 '시나'로부터 '이렇..</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2024-05-08 06:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>뉴욕증시, 카시카리 발언에 보합 마감…"당분간 고금리 유지"[월스트리트in]</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733273&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>뉴욕증시가 거의 변동 없이 보합세로 마감했다. 투자자들은 연방준비제도(연준)의 금리인하 시기 및 횟수에 촉각을 곤두세우고 있다. 연준 ..</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:51:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>조용히 예뻐진다…수출 훈풍에 고개드는 미용의료株</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733267&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>미용의료기기 관련주가 화장품에 이어 호실적 기대주로 부상하고 있다. 수출 비중이 높아 고환율 효과로 실적 개선이 예상되는 영향이 크다...</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:41:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>올해 20조 사들이는 外人…밸류업으로 투자 불씨 이어가야</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0004337723&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>코스피지수가 외국인투자가의 매수 확대에 힘입어 한 달 만에 2700대로 올라섰다. 금융투자 업계는 달러 강세로 인한 환차손 우려에도 외..</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>서울경제</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:31:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>금리인하 기대감, 돌아온 외국인…덩치 불리는 '빚투'</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733263&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>그간 안갯속이었던 미국의 금리 방향이 인하로 급물살을 타며 갈 곳을 잃었던 투자 자금 중 일부가 증시로 돌아올 준비를 하고 있다. 금리..</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:31:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>'외인·기관 매수세' 삼성전자, 8만전자 재진입… "AI 열풍에 지속 성장"</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001001132&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>글로벌 반도체 종목들이 일제히 상승하며 삼성전자도 8만전자에 올라섰다. 8일 한국거래소에 따르면 지난 7일 삼성전자는 전 거래일 대비 ..</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>'Fed 매파' 카시카리 "인플레 3% 머물 수도…금리인상 배제 못해"</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415155&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>미국 연방준비제도(Fed)의 대표적인 매파(통화긴축 선호) 인사로 꼽히는 닐 카시카리 미니애폴리스 연방준비은행(연은) 총재가 인플레이션..</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>"비과세 확대, 미성년 허용" ISA, '대표 노후 대비책' 되려면…</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733257&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>정부가 국민의 자산확대 수단 중 하나로 ‘개인종합자산관리(ISA)’를 손꼽고 이를 전면 손질하겠다고 나서면서 금융투자업계에서도 여러 의..</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:21:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>다이내믹 테슬라, 오늘은 주식 `파는 날`</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0002872314&amp;office_id=029&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>중국시장 부진 소식에 이날 3.7%↓ 금리·CEO 등 변수따라 변동성 확대 테슬라의 주가가 하루가 멀다하고 요동치고 있다. 금리와 시장..</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>디지털타임스</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>[속보]뉴욕증시 보합 마감…카시카리 발언에 상승폭 반납</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733255&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>뉴욕증시가 거의 변동 없이 보합세로 마감했다. 투자자들은 연방준비제도(연준)의 금리인하 시기 및 횟수에 촉각을 곤두세우고 있다. 연준내..</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>"증거금만 14조" HD현대마린, 주가 순항할까[IPO스타워즈]</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001001127&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>금융시장 변동성이 확대되는 가운데 기업공개(IPO) 시장이 개인들의 대안 투자처로 떠올랐다. 지난해에 이어 연초부터 2차전지와 인공지능..</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>IPO 진정세?…‘올해 상반기 최대어’ HD현대마린솔루션이 온다</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005733249&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>올해 상반기 기업공개(IPO) 시장의 ‘최대어’로 손꼽히는 HD현대마린솔루션이 유가증권시장(코스피) 상장에 나서며 최근 주춤한 IPO ..</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:01:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>무늬만 ESG펀드..무기·주류·도박·담배에 투자</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005181942&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=11</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>국내 주식형 ESG(환경·사회·지배구조)펀드가 무늬만 ESG라는 지적이 나왔다. 네거티브 스크리닝(투자제한·배제 전략) 종목에 해당하는..</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>"삼전 드디어 날아갈까"…개미군단은 순매도</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0012532847&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=12</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>삼성전자의 주가가 모처럼 5% 가까이 뛰며 8만원대를 회복했지만, 개인 투자자들은 이를 탈출 기회로 활용하며 매도 러시에 나서고 있다...</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2024-05-08 05:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>M4 칩으로 AI 승부수…애플, 새 아이패드 프로 출시</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0005415151&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=12</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>애플이 새 아이패드 프로와 에어를 7일(현지시간) 출시했다. 인공지능(AI)에 특화된 차세대 칩 'M4'를 탑재한 아이패드 신제품을 통..</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>아시아경제</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2024-05-08 03:40:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>애플, 신형 아이패드 프로 출시…M4칩 탑재</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0001160968&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=12</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>애플이 최신 태블릿 PC인 신형 아이패드 프로와 에어를 7일(현지시간) 출시했다. 애플은 이날 오전 온라인으로 '렛 루즈(Let Los..</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024-05-08 01:13:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>HD현대마린솔루션, 오늘 상장…'따따블' 기대해도 될까</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com/news/news_read.naver?article_id=0000286266&amp;office_id=629&amp;mode=mainnews&amp;type=&amp;date=2024-05-08&amp;page=12</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>따따블 성공 시 단숨에 시총 23위 등극 해외 기관 투자자, 주가 향방 정할 듯 올해 상반기 기업공개(IPO) 최대어로 주목받는 HD현..</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>더팩트</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2024-05-08 00:01:09</t>
         </is>
       </c>
     </row>
